--- a/N.Colon-Lettuce-AntagonismAssay.xlsx
+++ b/N.Colon-Lettuce-AntagonismAssay.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolecolon/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolecolon/Desktop/Phytoparastica/Excels_Data_Lettuce/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD7CDB67-9CED-AC43-A2FE-79706F2C3E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F35965DD-2A96-FA41-8526-C999CA912162}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="760" windowWidth="27640" windowHeight="15440" xr2:uid="{7D9A63BA-647B-A64C-89CA-14F4E453EFCF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="26">
   <si>
     <t>Isolate code</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>Antagonistic activity (inhibition) of the endophyte towards the pathogen was assessed by comparing each combination to the control (V1 vs. V2/2).</t>
+  </si>
+  <si>
+    <t>Outliers were removed prior to data analysis. One outliers from SY1140A.</t>
   </si>
 </sst>
 </file>
@@ -595,9 +598,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA843FF4-F2ED-E344-B87B-B649A7EF2B36}">
-  <dimension ref="A1:V32"/>
+  <dimension ref="A1:V33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
@@ -640,75 +645,50 @@
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5"/>
+    </row>
+    <row r="9" spans="1:22">
+      <c r="A9" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-    </row>
-    <row r="9" spans="1:22">
-      <c r="A9" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2">
-        <v>3</v>
-      </c>
-      <c r="F9" s="2">
-        <v>6</v>
-      </c>
-      <c r="G9" s="2">
-        <f t="shared" ref="G9:G23" si="0">(F9/2)-E9</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
     </row>
     <row r="10" spans="1:22">
       <c r="A10" s="2" t="s">
@@ -721,17 +701,17 @@
         <v>6</v>
       </c>
       <c r="D10" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2">
-        <v>7.2</v>
+        <v>6</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="0"/>
-        <v>1.6</v>
+        <f t="shared" ref="G10:G24" si="0">(F10/2)-E10</f>
+        <v>0</v>
       </c>
       <c r="H10" s="8"/>
       <c r="J10" s="8"/>
@@ -751,17 +731,17 @@
         <v>6</v>
       </c>
       <c r="D11" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2">
-        <v>5.6</v>
+        <v>7.2</v>
       </c>
       <c r="G11" s="2">
         <f t="shared" si="0"/>
-        <v>1.2999999999999998</v>
+        <v>1.6</v>
       </c>
       <c r="H11" s="8"/>
       <c r="J11" s="8"/>
@@ -772,26 +752,26 @@
     </row>
     <row r="12" spans="1:22">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12" s="2">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="F12" s="2">
         <v>5.6</v>
       </c>
       <c r="G12" s="2">
         <f t="shared" si="0"/>
-        <v>1.0999999999999999</v>
+        <v>1.2999999999999998</v>
       </c>
       <c r="H12" s="8"/>
       <c r="J12" s="8"/>
@@ -811,17 +791,17 @@
         <v>6</v>
       </c>
       <c r="D13" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="F13" s="2">
-        <v>5.3</v>
+        <v>5.6</v>
       </c>
       <c r="G13" s="2">
         <f t="shared" si="0"/>
-        <v>1.1499999999999999</v>
+        <v>1.0999999999999999</v>
       </c>
       <c r="H13" s="8"/>
       <c r="J13" s="8"/>
@@ -841,17 +821,17 @@
         <v>6</v>
       </c>
       <c r="D14" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E14" s="2">
         <v>1.5</v>
       </c>
       <c r="F14" s="2">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="G14" s="2">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="H14" s="8"/>
       <c r="J14" s="8"/>
@@ -862,26 +842,26 @@
     </row>
     <row r="15" spans="1:22">
       <c r="A15" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="2">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F15" s="2">
+        <v>5</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="0"/>
         <v>1</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2</v>
-      </c>
-      <c r="F15" s="2">
-        <v>5.3</v>
-      </c>
-      <c r="G15" s="2">
-        <f t="shared" si="0"/>
-        <v>0.64999999999999991</v>
       </c>
       <c r="H15" s="8"/>
       <c r="J15" s="8"/>
@@ -901,17 +881,17 @@
         <v>6</v>
       </c>
       <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
         <v>2</v>
       </c>
-      <c r="E16" s="2">
-        <v>2.7</v>
-      </c>
       <c r="F16" s="2">
-        <v>5.7</v>
+        <v>5.3</v>
       </c>
       <c r="G16" s="2">
         <f t="shared" si="0"/>
-        <v>0.14999999999999991</v>
+        <v>0.64999999999999991</v>
       </c>
       <c r="H16" s="8"/>
       <c r="J16" s="8"/>
@@ -931,17 +911,17 @@
         <v>6</v>
       </c>
       <c r="D17" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="2">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="F17" s="2">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" si="0"/>
-        <v>0.39999999999999991</v>
+        <v>0.14999999999999991</v>
       </c>
       <c r="H17" s="8"/>
       <c r="J17" s="8"/>
@@ -952,26 +932,26 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D18" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18" s="2">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="F18" s="2">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="G18" s="2">
         <f t="shared" si="0"/>
-        <v>1.2000000000000002</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="H18" s="8"/>
       <c r="J18" s="8"/>
@@ -991,17 +971,17 @@
         <v>6</v>
       </c>
       <c r="D19" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E19" s="2">
         <v>1.5</v>
       </c>
       <c r="F19" s="2">
-        <v>6.5</v>
+        <v>5.4</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" si="0"/>
-        <v>1.75</v>
+        <v>1.2000000000000002</v>
       </c>
       <c r="H19" s="8"/>
       <c r="J19" s="8"/>
@@ -1021,17 +1001,17 @@
         <v>6</v>
       </c>
       <c r="D20" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E20" s="2">
         <v>1.5</v>
       </c>
       <c r="F20" s="2">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="G20" s="2">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="H20" s="8"/>
       <c r="J20" s="8"/>
@@ -1042,27 +1022,33 @@
     </row>
     <row r="21" spans="1:17">
       <c r="A21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2">
+        <v>3</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F21" s="2">
         <v>7</v>
       </c>
-      <c r="D21" s="2">
-        <v>1</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="F21" s="2">
-        <v>5.5</v>
-      </c>
       <c r="G21" s="2">
         <f t="shared" si="0"/>
-        <v>-4.9999999999999822E-2</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H21" s="8"/>
+      <c r="J21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="N21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2" t="s">
@@ -1075,45 +1061,66 @@
         <v>7</v>
       </c>
       <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2.8</v>
+      </c>
+      <c r="F22" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="G22" s="2">
+        <f t="shared" si="0"/>
+        <v>-4.9999999999999822E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
+      <c r="A23" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="2">
         <v>2</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E23" s="2">
         <v>3</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F23" s="2">
         <v>6.2</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G23" s="2">
         <f t="shared" si="0"/>
         <v>0.10000000000000009</v>
       </c>
     </row>
-    <row r="23" spans="1:17">
-      <c r="A23" s="9" t="s">
+    <row r="24" spans="1:17">
+      <c r="A24" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C24" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="9">
+      <c r="D24" s="9">
         <v>3</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E24" s="9">
         <v>3.5</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F24" s="9">
         <v>6.7</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G24" s="9">
         <f t="shared" si="0"/>
         <v>-0.14999999999999991</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:17">
       <c r="B25" s="3"/>
@@ -1138,6 +1145,9 @@
     </row>
     <row r="32" spans="1:17">
       <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
